--- a/Dataset/Authors/APUL_apol.xlsx
+++ b/Dataset/Authors/APUL_apol.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\Dropbox\ALEXANDER\STUDIA\2025_Database_composti\Auctores_DB\Output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\.shortcut-targets-by-id\1knjo21SeGbZ1-eICJFWxrgYeTavGEZsK\Latin_Compounds_Database\Auctores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4A34C88-1FA6-4109-BBCB-0C887BC04D82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{083827FE-2F9A-44BE-8400-903E5D1CF3FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
   <si>
     <t>Apuleius Madaurensis Afer</t>
   </si>
@@ -332,6 +332,9 @@
   </si>
   <si>
     <t>Compounds</t>
+  </si>
+  <si>
+    <t>accipiter</t>
   </si>
 </sst>
 </file>
@@ -747,7 +750,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA102"/>
+  <dimension ref="A1:AA103"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
@@ -907,10 +910,10 @@
       <c r="AA5" s="5"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="8">
+      <c r="A6" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B6" s="6">
         <v>1</v>
       </c>
       <c r="C6" s="8"/>
@@ -941,7 +944,7 @@
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="8">
         <v>1</v>
@@ -974,7 +977,7 @@
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="8">
         <v>1</v>
@@ -1007,10 +1010,10 @@
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
@@ -1040,7 +1043,7 @@
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="8">
         <v>4</v>
@@ -1073,10 +1076,10 @@
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
@@ -1106,10 +1109,10 @@
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
@@ -1139,10 +1142,10 @@
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
@@ -1172,7 +1175,7 @@
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="8">
         <v>1</v>
@@ -1205,10 +1208,10 @@
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
@@ -1238,10 +1241,10 @@
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
@@ -1271,7 +1274,7 @@
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="8">
         <v>1</v>
@@ -1304,7 +1307,7 @@
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="8">
         <v>1</v>
@@ -1337,10 +1340,10 @@
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
@@ -1370,10 +1373,10 @@
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
@@ -1403,10 +1406,10 @@
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
@@ -1436,7 +1439,7 @@
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="8">
         <v>2</v>
@@ -1469,10 +1472,10 @@
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
@@ -1502,7 +1505,7 @@
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="8">
         <v>1</v>
@@ -1535,10 +1538,10 @@
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
@@ -1568,10 +1571,10 @@
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
@@ -1601,7 +1604,7 @@
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="8">
         <v>1</v>
@@ -1634,7 +1637,7 @@
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" s="8">
         <v>1</v>
@@ -1667,7 +1670,7 @@
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" s="8">
         <v>1</v>
@@ -1700,7 +1703,7 @@
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" s="8">
         <v>1</v>
@@ -1733,7 +1736,7 @@
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" s="8">
         <v>1</v>
@@ -1766,10 +1769,10 @@
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" s="8">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
@@ -1799,10 +1802,10 @@
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" s="8">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
@@ -1832,10 +1835,10 @@
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" s="8">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
@@ -1865,10 +1868,10 @@
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" s="8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
@@ -1898,10 +1901,10 @@
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" s="8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
@@ -1931,10 +1934,10 @@
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
@@ -1964,10 +1967,10 @@
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" s="8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
@@ -1997,10 +2000,10 @@
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39" s="8">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
@@ -2030,10 +2033,10 @@
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40" s="8">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
@@ -2063,7 +2066,7 @@
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41" s="8">
         <v>1</v>
@@ -2096,7 +2099,7 @@
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42" s="8">
         <v>1</v>
@@ -2129,7 +2132,7 @@
     </row>
     <row r="43" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43" s="8">
         <v>1</v>
@@ -2162,7 +2165,7 @@
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44" s="8">
         <v>1</v>
@@ -2195,10 +2198,10 @@
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
@@ -2228,7 +2231,7 @@
     </row>
     <row r="46" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46" s="8">
         <v>2</v>
@@ -2261,10 +2264,10 @@
     </row>
     <row r="47" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C47" s="8"/>
       <c r="D47" s="8"/>
@@ -2294,7 +2297,7 @@
     </row>
     <row r="48" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48" s="8">
         <v>1</v>
@@ -2327,7 +2330,7 @@
     </row>
     <row r="49" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49" s="8">
         <v>1</v>
@@ -2360,10 +2363,10 @@
     </row>
     <row r="50" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C50" s="8"/>
       <c r="D50" s="8"/>
@@ -2393,10 +2396,10 @@
     </row>
     <row r="51" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C51" s="8"/>
       <c r="D51" s="8"/>
@@ -2426,7 +2429,7 @@
     </row>
     <row r="52" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52" s="8">
         <v>1</v>
@@ -2459,10 +2462,10 @@
     </row>
     <row r="53" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B53" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C53" s="8"/>
       <c r="D53" s="8"/>
@@ -2492,7 +2495,7 @@
     </row>
     <row r="54" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54" s="8">
         <v>2</v>
@@ -2525,7 +2528,7 @@
     </row>
     <row r="55" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B55" s="8">
         <v>2</v>
@@ -2558,10 +2561,10 @@
     </row>
     <row r="56" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C56" s="8"/>
       <c r="D56" s="8"/>
@@ -2591,7 +2594,7 @@
     </row>
     <row r="57" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B57" s="8">
         <v>1</v>
@@ -2624,7 +2627,7 @@
     </row>
     <row r="58" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B58" s="8">
         <v>1</v>
@@ -2657,10 +2660,10 @@
     </row>
     <row r="59" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B59" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C59" s="8"/>
       <c r="D59" s="8"/>
@@ -2690,10 +2693,10 @@
     </row>
     <row r="60" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C60" s="8"/>
       <c r="D60" s="8"/>
@@ -2723,10 +2726,10 @@
     </row>
     <row r="61" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B61" s="8">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C61" s="8"/>
       <c r="D61" s="8"/>
@@ -2756,10 +2759,10 @@
     </row>
     <row r="62" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B62" s="8">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="C62" s="8"/>
       <c r="D62" s="8"/>
@@ -2789,10 +2792,10 @@
     </row>
     <row r="63" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B63" s="8">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="C63" s="8"/>
       <c r="D63" s="8"/>
@@ -2822,7 +2825,7 @@
     </row>
     <row r="64" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B64" s="8">
         <v>1</v>
@@ -2855,10 +2858,10 @@
     </row>
     <row r="65" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B65" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C65" s="8"/>
       <c r="D65" s="8"/>
@@ -2888,7 +2891,7 @@
     </row>
     <row r="66" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B66" s="8">
         <v>2</v>
@@ -2921,10 +2924,10 @@
     </row>
     <row r="67" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B67" s="8">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C67" s="8"/>
       <c r="D67" s="8"/>
@@ -2954,10 +2957,10 @@
     </row>
     <row r="68" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B68" s="8">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C68" s="8"/>
       <c r="D68" s="8"/>
@@ -2987,7 +2990,7 @@
     </row>
     <row r="69" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B69" s="8">
         <v>1</v>
@@ -3020,10 +3023,10 @@
     </row>
     <row r="70" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B70" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C70" s="8"/>
       <c r="D70" s="8"/>
@@ -3053,10 +3056,10 @@
     </row>
     <row r="71" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B71" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C71" s="8"/>
       <c r="D71" s="8"/>
@@ -3086,10 +3089,10 @@
     </row>
     <row r="72" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B72" s="8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C72" s="8"/>
       <c r="D72" s="8"/>
@@ -3119,10 +3122,10 @@
     </row>
     <row r="73" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B73" s="8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C73" s="8"/>
       <c r="D73" s="8"/>
@@ -3152,10 +3155,10 @@
     </row>
     <row r="74" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B74" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C74" s="8"/>
       <c r="D74" s="8"/>
@@ -3185,10 +3188,10 @@
     </row>
     <row r="75" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B75" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C75" s="8"/>
       <c r="D75" s="8"/>
@@ -3218,7 +3221,7 @@
     </row>
     <row r="76" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B76" s="8">
         <v>1</v>
@@ -3251,7 +3254,7 @@
     </row>
     <row r="77" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B77" s="8">
         <v>1</v>
@@ -3284,7 +3287,7 @@
     </row>
     <row r="78" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B78" s="8">
         <v>1</v>
@@ -3317,7 +3320,7 @@
     </row>
     <row r="79" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B79" s="8">
         <v>1</v>
@@ -3350,7 +3353,7 @@
     </row>
     <row r="80" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B80" s="8">
         <v>1</v>
@@ -3383,10 +3386,10 @@
     </row>
     <row r="81" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B81" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C81" s="8"/>
       <c r="D81" s="8"/>
@@ -3416,10 +3419,10 @@
     </row>
     <row r="82" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B82" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C82" s="8"/>
       <c r="D82" s="8"/>
@@ -3449,10 +3452,10 @@
     </row>
     <row r="83" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B83" s="8">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C83" s="8"/>
       <c r="D83" s="8"/>
@@ -3482,10 +3485,10 @@
     </row>
     <row r="84" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B84" s="8">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C84" s="8"/>
       <c r="D84" s="8"/>
@@ -3515,10 +3518,10 @@
     </row>
     <row r="85" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B85" s="8">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C85" s="8"/>
       <c r="D85" s="8"/>
@@ -3548,10 +3551,10 @@
     </row>
     <row r="86" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B86" s="8">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C86" s="8"/>
       <c r="D86" s="8"/>
@@ -3581,7 +3584,7 @@
     </row>
     <row r="87" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B87" s="8">
         <v>3</v>
@@ -3614,10 +3617,10 @@
     </row>
     <row r="88" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B88" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C88" s="8"/>
       <c r="D88" s="8"/>
@@ -3647,10 +3650,10 @@
     </row>
     <row r="89" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B89" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C89" s="8"/>
       <c r="D89" s="8"/>
@@ -3680,7 +3683,7 @@
     </row>
     <row r="90" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B90" s="8">
         <v>1</v>
@@ -3713,7 +3716,7 @@
     </row>
     <row r="91" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B91" s="8">
         <v>1</v>
@@ -3746,7 +3749,7 @@
     </row>
     <row r="92" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B92" s="8">
         <v>1</v>
@@ -3779,7 +3782,7 @@
     </row>
     <row r="93" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B93" s="8">
         <v>1</v>
@@ -3812,7 +3815,7 @@
     </row>
     <row r="94" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B94" s="8">
         <v>1</v>
@@ -3845,7 +3848,7 @@
     </row>
     <row r="95" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B95" s="8">
         <v>1</v>
@@ -3878,7 +3881,7 @@
     </row>
     <row r="96" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B96" s="8">
         <v>1</v>
@@ -3911,10 +3914,10 @@
     </row>
     <row r="97" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B97" s="8">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C97" s="8"/>
       <c r="D97" s="8"/>
@@ -3944,10 +3947,10 @@
     </row>
     <row r="98" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B98" s="8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C98" s="8"/>
       <c r="D98" s="8"/>
@@ -3977,10 +3980,10 @@
     </row>
     <row r="99" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B99" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C99" s="8"/>
       <c r="D99" s="8"/>
@@ -4010,10 +4013,10 @@
     </row>
     <row r="100" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B100" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C100" s="8"/>
       <c r="D100" s="8"/>
@@ -4043,10 +4046,10 @@
     </row>
     <row r="101" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B101" s="8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C101" s="8"/>
       <c r="D101" s="8"/>
@@ -4076,7 +4079,7 @@
     </row>
     <row r="102" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B102" s="8">
         <v>1</v>
@@ -4107,7 +4110,18 @@
       <c r="Z102" s="8"/>
       <c r="AA102" s="8"/>
     </row>
+    <row r="103" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A103" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B103" s="8">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:B103">
+    <sortCondition ref="A103"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>